--- a/Database/newLoan.xlsx
+++ b/Database/newLoan.xlsx
@@ -1,100 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Finance software\Database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1D1BF0-E442-4811-91C5-BE179925D64A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Father/Husbands Name</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Gaurentee Name</t>
-  </si>
-  <si>
-    <t>Gaurentee Fathers Name</t>
-  </si>
-  <si>
-    <t>Gaurentee Number</t>
-  </si>
-  <si>
-    <t>Gaurentee Address</t>
-  </si>
-  <si>
-    <t>Loan Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Broker</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Vehicle Number</t>
-  </si>
-  <si>
-    <t>Chart Months</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Number of Documents</t>
-  </si>
-  <si>
-    <t>RC Number</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -110,24 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -427,87 +351,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" activeCellId="1" sqref="D10 D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="13" width="15" customWidth="1"/>
-    <col min="14" max="19" width="20" customWidth="1"/>
+    <col customWidth="1" max="2" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="50"/>
+    <col customWidth="1" max="6" min="5" width="30"/>
+    <col customWidth="1" max="6" min="6" width="30"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="50"/>
+    <col customWidth="1" max="10" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
+    <col customWidth="1" max="11" min="11" width="30"/>
+    <col customWidth="1" max="13" min="12" width="15"/>
+    <col customWidth="1" max="13" min="13" width="15"/>
+    <col customWidth="1" max="19" min="14" width="20"/>
+    <col customWidth="1" max="15" min="15" width="20"/>
+    <col customWidth="1" max="16" min="16" width="20"/>
+    <col customWidth="1" max="17" min="17" width="20"/>
+    <col customWidth="1" max="18" min="18" width="20"/>
+    <col customWidth="1" max="19" min="19" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Father/Husbands Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Gaurentee Name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Gaurentee Fathers Name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Gaurentee Number</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Gaurentee Address</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Loan Date</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Broker</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Vehicle Number</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Chart Months</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Interest Rate</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Number of Documents</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>List of Documents</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>RC Number</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Unique ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ahgyj</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sdkjlf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>lkjf</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kjdf</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>jksd</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>lkjdsf</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>lkjdf</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>kdjdf</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10.10.10</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nans</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>tn-12-c-1234</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>rc</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>fds</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>b7701da6-d573-11e9-be14-107d1a2a80c2</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Database/newLoan.xlsx
+++ b/Database/newLoan.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" activeCellId="1" sqref="D10 D9"/>
@@ -599,6 +599,1713 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>jain</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>lkdjf</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ksjd</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>kldjf</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>lkdjsf</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>lkdjs</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>12333</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>sdkjf</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>skdlfj</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>lkskjf</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>tn-12-c-1234</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>skdl.sdf,s,s,,s,</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>6817ce00-d6ac-11e9-a30c-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>divesh20</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nav</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5775</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dslfkj</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lkjsdflkjsdf</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lkjsdfl</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>jslkjf</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>lkjsflkj</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>14.09.2019</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>kp</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>lkjsd</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>tn-02-v-4444</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>skjd,sdf,sd</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>83281576-d6b2-11e9-bfac-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>12.3.2019</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>tn-00-c-3</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10.8.2019</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>tn-0-c-2</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>166c3634-d6b3-11e9-9db4-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">navaratan </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9884523855</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>muth u street</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nilesh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>navartan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9043926651</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>muthu street</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>19.08.2019</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>kp</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>yamaha</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>y3</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>tn-01-c-1111</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>rc,aadhar,ration</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>bd28ec38-d6b3-11e9-92af-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10.9.2019</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>ef4cdc68-d6b3-11e9-adde-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>9.7.1999</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>mu</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>642d5dbe-d6b4-11e9-9cff-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10.9.2000</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>90ebf2e4-d6b4-11e9-b897-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10.9.1908</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>b229db9e-d6b4-11e9-b9df-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10.9.2019</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>f0011f92-d6b4-11e9-b395-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10.9.2019</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>4dc9e876-d6b5-11e9-9494-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.1.2019</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>b58042dc-d6b5-11e9-96b8-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10.10.2019</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>f45ed148-d6b5-11e9-a1c5-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10.10.2019</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>30c90b5e-d6b6-11e9-95e5-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>navaratan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9884523855</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>muthu street chennai</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>nilesh</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">navaratan </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9043926651</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>muthu street chennai</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>19.08.2019</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>kp</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>yamaha</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>y3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>tn-02-c-8055</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>x,y,z</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>b002d934-d6b6-11e9-bf69-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>navaratan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9884523855</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>muthu street chennai</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nilesh</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>navaratan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>9043926651</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>muthu street chennai</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>10.09.2019</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>kp</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>yamaha</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>y3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>tn-02-8055</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>aadhar</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>f237508c-d6b6-11e9-acd7-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Database/newLoan.xlsx
+++ b/Database/newLoan.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" activeCellId="1" sqref="D10 D9"/>
@@ -2306,6 +2306,1076 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>lll</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10.10.10</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>llll</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>854973da-d700-11e9-adb8-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>anurag</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>xyz</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>984523555</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>slkdfjs</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>divehs</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ksljdf</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10.10.10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>685455</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>85790080-d7cb-11e9-8940-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>12.10.2019</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>9e276610-d7dc-11e9-a6a0-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>12.10.2019</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>a9758200-d7dc-11e9-84f0-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10200</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>00253868-d7dd-11e9-b106-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>12.10.2019</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>10200</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>4d84c664-d7dd-11e9-94bd-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10200</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>e546a70c-d7dd-11e9-9d3d-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10200</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>d2295664-d7de-11e9-8c11-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10200</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1ab033dc-d7df-11e9-b49a-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>10222</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>119c2a74-d865-11e9-b40c-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Database/newLoan.xlsx
+++ b/Database/newLoan.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" activeCellId="1" sqref="D10 D9"/>
@@ -3376,6 +3376,113 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>must street</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nilesh</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>rust street</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>nilesh</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>yamaha</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>TN-02-C-1234</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>r,c</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>e2fcc026-d886-11e9-abcb-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Database/newLoan.xlsx
+++ b/Database/newLoan.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" activeCellId="1" sqref="D10 D9"/>
@@ -3483,6 +3483,113 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>kalam</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>10.09.2019</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>tn-02-c-2345</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>6d7ea44c-d92e-11e9-b662-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Database/newLoan.xlsx
+++ b/Database/newLoan.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -356,13 +356,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" activeCellId="1" sqref="D10 D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="2" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="30"/>
@@ -3590,6 +3590,541 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>udit</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>90009749939</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sdlfjsldkjf</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>090909989</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>muthu street</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>12.09.2019</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>yamah</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>y3</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>tn-02-c-8888</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>d,d,d,</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>51b44048-dbaf-11e9-932c-107d1a2a80c2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9884523855</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>muthu street</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>lkj</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>9884523855</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">neil </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>10.12.2019</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>yamaha</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>y3</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>tn-02-cc-1299</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>kh</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>bfab0d98-f55d-11e9-b250-f8da0c2bca8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Navaratan</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>9043926545</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Muthukrishnan street</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Nilesh</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Navaratan</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>9884523866</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>abc colony</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>12.12.2019</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>s9</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>tn-02-12-2234</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>RC,Ration card</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>c-12</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>731903fa-00c8-11ea-b8ac-f8da0c2bca8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>jatin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>jdasfkl</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>klsjdf</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>lksjdf</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>lkjsflkj</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>lskdjf</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>lksdjf</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>lksdjf</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>12.08.2019</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>yamaha</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>y4</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>tn-02-cc-0000</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>sdkflj</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>dsklf</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>492bdd08-1937-11ea-b191-f8da0c2bca8e</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>anuraj</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>kldsjf</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>lkdjsf</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>klsjdf</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>kldsjf</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>dlskjf</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>sldkfj</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>slkdjf</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>15.12.2019</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>12553</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>divesh</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>yamaha</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>y3</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>tn-02-22-1234</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>hj</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>f1ea9692-1efa-11ea-abd9-db84c14c82c2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Database/newLoan.xlsx
+++ b/Database/newLoan.xlsx
@@ -4066,7 +4066,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12553</t>
+          <t>23000</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">

--- a/Database/newLoan.xlsx
+++ b/Database/newLoan.xlsx
@@ -4066,7 +4066,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>23000</t>
+          <t>30000</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
